--- a/indicadores/tablas/pob/230301_sexo.xlsx
+++ b/indicadores/tablas/pob/230301_sexo.xlsx
@@ -441,7 +441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -620,7 +620,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/230301_sexo.xlsx
+++ b/indicadores/tablas/pob/230301_sexo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,100 +24,109 @@
     <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas que residen en hogares con ingreso bajo la línea de pobreza luego de pagar los gastos de vivienda (alquiler o cuota de compra)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Gasto excesivo en vivienda en relación a la línea de pobreza</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de personas que residen en hogares con ingreso bajo la línea de pobreza luego de pagar los gastos de vivienda (alquiler o cuota de compra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de personas que reside en viviendas con ingreso insuficiente luego del gasto en vivienda. El indicador se construye restando el gasto en vivienda del ingreso de los hogares y comparándolo con el valor de la línea de pobreza a la cual se le quita el peso relativo del componente asociado a la vivienda.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Número de personas en hogares cuyos ingresos totales al deducir los gastos en vivienda por cuota de compra o alquiler caen por debajo de la línea de pobreza quitando el componente de vivienda/ Cantidad total de personas en viviendas particulares)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
   </si>
   <si>
     <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -436,12 +445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -459,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="C2" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +490,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +501,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="C5" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -503,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
@@ -514,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8">
@@ -525,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C8" t="n">
         <v>2.1</v>
@@ -536,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>2.1</v>
@@ -547,10 +556,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="C10" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +567,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
@@ -569,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="C12" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13">
@@ -580,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
@@ -591,10 +600,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="C14" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +611,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -615,12 +624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,6 +693,22 @@
       </c>
       <c r="B8" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/230301_sexo.xlsx
+++ b/indicadores/tablas/pob/230301_sexo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,6 +24,15 @@
     <t xml:space="preserve">Mujeres</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
@@ -66,9 +75,6 @@
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -111,13 +117,21 @@
     <t xml:space="preserve">observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin observaciones</t>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -468,10 +482,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +504,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -501,10 +515,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -512,10 +526,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +537,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
         <v>2.1</v>
@@ -545,7 +559,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C9" t="n">
         <v>2.1</v>
@@ -556,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11">
@@ -567,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -578,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +603,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="C13" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
@@ -600,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="C14" t="n">
-        <v>5.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15">
@@ -611,9 +625,42 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
         <v>6.3</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>6.6</v>
       </c>
     </row>
@@ -633,82 +680,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
